--- a/data/raw/Questionnaire/Electrotactile Feedback - Phase 3 (Responses).xlsx
+++ b/data/raw/Questionnaire/Electrotactile Feedback - Phase 3 (Responses).xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ae8aac97e7392d0/Documents/Uni/Level 5/Individual Project/Repository/data/raw/Questionnaire/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_96808DE033C3ACA2F89B1534DE2528E350C2014A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85508096-1BBC-4758-9C78-55C50D85F0E9}"/>
+  <bookViews>
+    <workbookView xWindow="3825" yWindow="4770" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="133">
   <si>
     <t>Timestamp</t>
   </si>
@@ -172,9 +181,6 @@
     <t>It would be a fun novelty to have it attached to video games, where certain actions cause electrotactile feedback.</t>
   </si>
   <si>
-    <t>nathan_hamilton18@outlook.com</t>
-  </si>
-  <si>
     <t>2bb54254-c393-4519-89b9-768060d82edd</t>
   </si>
   <si>
@@ -202,9 +208,6 @@
     <t>Todays tactile feedback was far tamer and made for general use which works but last time the customer personal haptic feedback was little more engaging</t>
   </si>
   <si>
-    <t>sparky.ford@me.com</t>
-  </si>
-  <si>
     <t>ee24a046-92b1-449b-85e5-8dcb4b7b9f44</t>
   </si>
   <si>
@@ -292,9 +295,6 @@
     <t>For accessibility, terminal screens where haptics may not be an option. Or keypads on public places.</t>
   </si>
   <si>
-    <t>jamiethomasmccready@gmail.com</t>
-  </si>
-  <si>
     <t>9d5399e1-48ad-4f6d-8ca9-6b74a2ed0053</t>
   </si>
   <si>
@@ -418,24 +418,25 @@
     <t xml:space="preserve">Smart gloves which used electrotactile feedback to inform the user of the state of their device, even without other interactions occurring (electrotactile notification of incoming message) </t>
   </si>
   <si>
-    <t>2555900m@student.gla.ac.uk</t>
+    <t>[REDACTED]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -446,40 +447,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -669,26 +674,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="31" width="18.88"/>
+    <col min="1" max="31" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,887 +773,887 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45357.622333148145</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="3">
-        <v>4.0</v>
+      <c r="U2" s="1">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>45357.65025668981</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>45357.650256689813</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="L3" s="1">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="3" t="s">
+      <c r="S3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="3">
-        <v>5.0</v>
+      <c r="U3" s="1">
+        <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>45357.6818644213</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>45357.681864421298</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="L4" s="1">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="V4" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="W4" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="X4" s="3" t="s">
+      <c r="V4" s="1">
+        <v>4</v>
+      </c>
+      <c r="W4" s="1">
+        <v>5</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>45357.703589837962</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>45357.70358983796</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>45359.409652951392</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V6" s="1">
+        <v>2</v>
+      </c>
+      <c r="W6" s="1">
+        <v>4</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>45359.430073321761</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" s="3" t="s">
+      <c r="K7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="3" t="s">
+      <c r="P7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="U5" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>63</v>
+      <c r="S7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U7" s="1">
+        <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>45359.40965295139</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="V6" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="W6" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>45359.43007332176</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="U7" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="8">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45359.472489328706</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="N8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="M8" s="3" t="s">
+      <c r="P8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="3" t="s">
+      <c r="Q8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="R8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="U8" s="3">
-        <v>4.0</v>
+      <c r="U8" s="1">
+        <v>4</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45359.512386041664</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="J9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V9" s="1">
+        <v>2</v>
+      </c>
+      <c r="W9" s="1">
+        <v>3</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>45359.557243784722</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>45359.573898506947</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="V9" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="W9" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="X9" s="3" t="s">
+      <c r="G11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="V11" s="1">
+        <v>4</v>
+      </c>
+      <c r="W11" s="1">
+        <v>4</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>45359.600950081018</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>93</v>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="U12" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>45359.55724378472</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="U10" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <v>45359.57389850695</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="V11" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="W11" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <v>45359.60095008102</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="U12" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45359.637044421295</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="1">
+        <v>3</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="P13" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H13" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="M13" s="3" t="s">
+      <c r="Q13" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" s="3" t="s">
+      <c r="R13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="P13" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="U13" s="3">
-        <v>4.0</v>
+      <c r="U13" s="1">
+        <v>4</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45359.650859490735</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="Q14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>45359.665526724537</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="F15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="L15" s="1">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="U14" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>45359.66552672454</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="N15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="P15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H15" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="M15" s="3" t="s">
+      <c r="Q15" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="3" t="s">
+      <c r="V15" s="1">
+        <v>3</v>
+      </c>
+      <c r="W15" s="1">
+        <v>4</v>
+      </c>
+      <c r="X15" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Y15" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="V15" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="W15" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>